--- a/AppData/Reports/GroupProgressSheet/Template.xlsx
+++ b/AppData/Reports/GroupProgressSheet/Template.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,15 +19,203 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+  <si>
+    <t>Итоговые оценки и зачеты за I семестр</t>
+  </si>
+  <si>
+    <t>Средний балл</t>
+  </si>
+  <si>
+    <t>всего</t>
+  </si>
+  <si>
+    <t>Бондарук Эдуард Анатольевич</t>
+  </si>
+  <si>
+    <t>Удовл.</t>
+  </si>
+  <si>
+    <t>Голёта Алексей Александрович</t>
+  </si>
+  <si>
+    <t>осв</t>
+  </si>
+  <si>
+    <t>Грищук Семен Михайлович</t>
+  </si>
+  <si>
+    <t>Данченко Кирилл Игоревич</t>
+  </si>
+  <si>
+    <t>Долмат Дмитрий Викторович</t>
+  </si>
+  <si>
+    <t>Домащук Анастасия Сергеевна</t>
+  </si>
+  <si>
+    <t>Заец Юрий Александрович</t>
+  </si>
+  <si>
+    <t>Козик Денис Васильевич</t>
+  </si>
+  <si>
+    <t>Концевич Владислав Вячеславович</t>
+  </si>
+  <si>
+    <t>Корневич Максим Александрович</t>
+  </si>
+  <si>
+    <t>Кушнерук Евгений Михайлович</t>
+  </si>
+  <si>
+    <t>Логинов Дмитрий Александрович</t>
+  </si>
+  <si>
+    <t>Невдах Владислав Эдуардович</t>
+  </si>
+  <si>
+    <t>Пупчик Николай Александрович</t>
+  </si>
+  <si>
+    <t>Рудаков Николай Александрович</t>
+  </si>
+  <si>
+    <t>Сачковская Наталья Владимировна</t>
+  </si>
+  <si>
+    <t>Слаута Андрей Евгеньевич</t>
+  </si>
+  <si>
+    <t>Федчук Данила Павлович</t>
+  </si>
+  <si>
+    <t>Филиппов Илья Александрович</t>
+  </si>
+  <si>
+    <t>Фицнер Алекс Валентинович</t>
+  </si>
+  <si>
+    <t>Хаванский Сергей Михайлович</t>
+  </si>
+  <si>
+    <t>Чечун Марк Владимирович</t>
+  </si>
+  <si>
+    <t>Шостак Артём Иванович</t>
+  </si>
+  <si>
+    <t>Шпак Максим Геннадьевич</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>зач</t>
+  </si>
+  <si>
+    <t>Экзамен</t>
+  </si>
+  <si>
+    <t>Иностранный яхык (профессиональная лексика)</t>
+  </si>
+  <si>
+    <t>Кол-во пропущен
+ных уроков</t>
+  </si>
+  <si>
+    <t>Конструирование программ и языки программирования</t>
+  </si>
+  <si>
+    <t>Техноголия разработки программного обеспечения</t>
+  </si>
+  <si>
+    <t>Фамилия
+Имя
+Отчество</t>
+  </si>
+  <si>
+    <t>Оценка по поведению</t>
+  </si>
+  <si>
+    <t>уважительная</t>
+  </si>
+  <si>
+    <t>не уважительная</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +226,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -45,15 +234,410 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +653,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,12 +693,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +733,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -181,7 +765,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +915,1683 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="4" customWidth="1"/>
+    <col min="3" max="18" width="4.85546875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="5" style="5" customWidth="1"/>
+    <col min="21" max="23" width="4.85546875" style="4" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" style="4" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
+      <c r="B1" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" s="15"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="2"/>
+    </row>
+    <row r="2" spans="1:24" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="2"/>
+    </row>
+    <row r="3" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="52">
+        <v>1</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="34">
+        <v>6</v>
+      </c>
+      <c r="D3" s="49">
+        <v>8</v>
+      </c>
+      <c r="E3" s="49">
+        <v>10</v>
+      </c>
+      <c r="F3" s="49">
+        <v>6</v>
+      </c>
+      <c r="G3" s="49">
+        <v>5</v>
+      </c>
+      <c r="H3" s="49">
+        <v>7</v>
+      </c>
+      <c r="I3" s="49">
+        <v>5</v>
+      </c>
+      <c r="J3" s="49">
+        <v>7</v>
+      </c>
+      <c r="K3" s="49">
+        <v>9</v>
+      </c>
+      <c r="L3" s="49">
+        <v>9</v>
+      </c>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="35">
+        <v>7.2</v>
+      </c>
+      <c r="U3" s="38">
+        <v>0</v>
+      </c>
+      <c r="V3" s="39">
+        <v>0</v>
+      </c>
+      <c r="W3" s="40">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>2</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="19">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="6">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6">
+        <v>5</v>
+      </c>
+      <c r="H4" s="6">
+        <v>6</v>
+      </c>
+      <c r="I4" s="6">
+        <v>4</v>
+      </c>
+      <c r="J4" s="6">
+        <v>4</v>
+      </c>
+      <c r="K4" s="6">
+        <v>7</v>
+      </c>
+      <c r="L4" s="6">
+        <v>5</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" s="36">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="U4" s="41">
+        <v>0</v>
+      </c>
+      <c r="V4" s="7">
+        <v>0</v>
+      </c>
+      <c r="W4" s="20">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>3</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="19">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4</v>
+      </c>
+      <c r="H5" s="6">
+        <v>7</v>
+      </c>
+      <c r="I5" s="6">
+        <v>4</v>
+      </c>
+      <c r="J5" s="6">
+        <v>4</v>
+      </c>
+      <c r="K5" s="6">
+        <v>9</v>
+      </c>
+      <c r="L5" s="6">
+        <v>7</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" s="36">
+        <v>5.7</v>
+      </c>
+      <c r="U5" s="41">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <v>0</v>
+      </c>
+      <c r="W5" s="20">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>4</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="19">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6">
+        <v>9</v>
+      </c>
+      <c r="F6" s="6">
+        <v>6</v>
+      </c>
+      <c r="G6" s="6">
+        <v>6</v>
+      </c>
+      <c r="H6" s="6">
+        <v>8</v>
+      </c>
+      <c r="I6" s="6">
+        <v>6</v>
+      </c>
+      <c r="J6" s="6">
+        <v>7</v>
+      </c>
+      <c r="K6" s="6">
+        <v>9</v>
+      </c>
+      <c r="L6" s="6">
+        <v>8</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" s="36">
+        <v>7.2</v>
+      </c>
+      <c r="U6" s="41">
+        <v>48</v>
+      </c>
+      <c r="V6" s="7">
+        <v>48</v>
+      </c>
+      <c r="W6" s="20">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>5</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="19">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6">
+        <v>9</v>
+      </c>
+      <c r="F7" s="6">
+        <v>6</v>
+      </c>
+      <c r="G7" s="6">
+        <v>4</v>
+      </c>
+      <c r="H7" s="6">
+        <v>7</v>
+      </c>
+      <c r="I7" s="6">
+        <v>5</v>
+      </c>
+      <c r="J7" s="6">
+        <v>5</v>
+      </c>
+      <c r="K7" s="6">
+        <v>8</v>
+      </c>
+      <c r="L7" s="6">
+        <v>8</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T7" s="36">
+        <v>6.4</v>
+      </c>
+      <c r="U7" s="41">
+        <v>8</v>
+      </c>
+      <c r="V7" s="7">
+        <v>8</v>
+      </c>
+      <c r="W7" s="20">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>6</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="19">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6">
+        <v>8</v>
+      </c>
+      <c r="F8" s="6">
+        <v>7</v>
+      </c>
+      <c r="G8" s="6">
+        <v>8</v>
+      </c>
+      <c r="H8" s="6">
+        <v>9</v>
+      </c>
+      <c r="I8" s="6">
+        <v>8</v>
+      </c>
+      <c r="J8" s="6">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6">
+        <v>9</v>
+      </c>
+      <c r="L8" s="6">
+        <v>8</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="36">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="U8" s="41">
+        <v>77</v>
+      </c>
+      <c r="V8" s="7">
+        <v>77</v>
+      </c>
+      <c r="W8" s="20">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>7</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="19">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="6">
+        <v>4</v>
+      </c>
+      <c r="G9" s="6">
+        <v>4</v>
+      </c>
+      <c r="H9" s="6">
+        <v>5</v>
+      </c>
+      <c r="I9" s="6">
+        <v>4</v>
+      </c>
+      <c r="J9" s="6">
+        <v>4</v>
+      </c>
+      <c r="K9" s="6">
+        <v>7</v>
+      </c>
+      <c r="L9" s="6">
+        <v>5</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="36">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="U9" s="41">
+        <v>79</v>
+      </c>
+      <c r="V9" s="7">
+        <v>79</v>
+      </c>
+      <c r="W9" s="20">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>8</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="19">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6">
+        <v>9</v>
+      </c>
+      <c r="F10" s="6">
+        <v>9</v>
+      </c>
+      <c r="G10" s="6">
+        <v>6</v>
+      </c>
+      <c r="H10" s="6">
+        <v>9</v>
+      </c>
+      <c r="I10" s="6">
+        <v>8</v>
+      </c>
+      <c r="J10" s="6">
+        <v>7</v>
+      </c>
+      <c r="K10" s="6">
+        <v>9</v>
+      </c>
+      <c r="L10" s="6">
+        <v>9</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="36">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="U10" s="41">
+        <v>16</v>
+      </c>
+      <c r="V10" s="7">
+        <v>16</v>
+      </c>
+      <c r="W10" s="20">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1"/>
+    </row>
+    <row r="11" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>9</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="19">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6">
+        <v>9</v>
+      </c>
+      <c r="E11" s="6">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6">
+        <v>9</v>
+      </c>
+      <c r="G11" s="6">
+        <v>8</v>
+      </c>
+      <c r="H11" s="6">
+        <v>9</v>
+      </c>
+      <c r="I11" s="6">
+        <v>9</v>
+      </c>
+      <c r="J11" s="6">
+        <v>8</v>
+      </c>
+      <c r="K11" s="6">
+        <v>9</v>
+      </c>
+      <c r="L11" s="6">
+        <v>9</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T11" s="36">
+        <v>8.9</v>
+      </c>
+      <c r="U11" s="41">
+        <v>22</v>
+      </c>
+      <c r="V11" s="7">
+        <v>22</v>
+      </c>
+      <c r="W11" s="20">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>10</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="19">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6">
+        <v>8</v>
+      </c>
+      <c r="E12" s="6">
+        <v>9</v>
+      </c>
+      <c r="F12" s="6">
+        <v>9</v>
+      </c>
+      <c r="G12" s="6">
+        <v>8</v>
+      </c>
+      <c r="H12" s="6">
+        <v>9</v>
+      </c>
+      <c r="I12" s="6">
+        <v>9</v>
+      </c>
+      <c r="J12" s="6">
+        <v>9</v>
+      </c>
+      <c r="K12" s="6">
+        <v>9</v>
+      </c>
+      <c r="L12" s="6">
+        <v>9</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="36">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="U12" s="41">
+        <v>77</v>
+      </c>
+      <c r="V12" s="7">
+        <v>77</v>
+      </c>
+      <c r="W12" s="20">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1"/>
+    </row>
+    <row r="13" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>11</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="19">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6">
+        <v>6</v>
+      </c>
+      <c r="E13" s="6">
+        <v>9</v>
+      </c>
+      <c r="F13" s="6">
+        <v>4</v>
+      </c>
+      <c r="G13" s="6">
+        <v>4</v>
+      </c>
+      <c r="H13" s="6">
+        <v>8</v>
+      </c>
+      <c r="I13" s="6">
+        <v>5</v>
+      </c>
+      <c r="J13" s="6">
+        <v>5</v>
+      </c>
+      <c r="K13" s="6">
+        <v>9</v>
+      </c>
+      <c r="L13" s="6">
+        <v>8</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T13" s="36">
+        <v>6.3</v>
+      </c>
+      <c r="U13" s="41">
+        <v>15</v>
+      </c>
+      <c r="V13" s="7">
+        <v>15</v>
+      </c>
+      <c r="W13" s="20">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1"/>
+    </row>
+    <row r="14" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>12</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="19">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6">
+        <v>9</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="6">
+        <v>9</v>
+      </c>
+      <c r="G14" s="6">
+        <v>8</v>
+      </c>
+      <c r="H14" s="6">
+        <v>9</v>
+      </c>
+      <c r="I14" s="6">
+        <v>9</v>
+      </c>
+      <c r="J14" s="6">
+        <v>9</v>
+      </c>
+      <c r="K14" s="6">
+        <v>9</v>
+      </c>
+      <c r="L14" s="6">
+        <v>9</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="36">
+        <v>8.89</v>
+      </c>
+      <c r="U14" s="41">
+        <v>39</v>
+      </c>
+      <c r="V14" s="7">
+        <v>39</v>
+      </c>
+      <c r="W14" s="20">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1"/>
+    </row>
+    <row r="15" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
+        <v>13</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="19">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6">
+        <v>8</v>
+      </c>
+      <c r="E15" s="6">
+        <v>9</v>
+      </c>
+      <c r="F15" s="6">
+        <v>8</v>
+      </c>
+      <c r="G15" s="6">
+        <v>7</v>
+      </c>
+      <c r="H15" s="6">
+        <v>9</v>
+      </c>
+      <c r="I15" s="6">
+        <v>8</v>
+      </c>
+      <c r="J15" s="6">
+        <v>8</v>
+      </c>
+      <c r="K15" s="6">
+        <v>9</v>
+      </c>
+      <c r="L15" s="6">
+        <v>9</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="36">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="U15" s="41">
+        <v>68</v>
+      </c>
+      <c r="V15" s="7">
+        <v>68</v>
+      </c>
+      <c r="W15" s="20">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1"/>
+    </row>
+    <row r="16" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
+        <v>14</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="19">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6">
+        <v>6</v>
+      </c>
+      <c r="E16" s="6">
+        <v>10</v>
+      </c>
+      <c r="F16" s="6">
+        <v>4</v>
+      </c>
+      <c r="G16" s="6">
+        <v>5</v>
+      </c>
+      <c r="H16" s="6">
+        <v>6</v>
+      </c>
+      <c r="I16" s="6">
+        <v>5</v>
+      </c>
+      <c r="J16" s="6">
+        <v>6</v>
+      </c>
+      <c r="K16" s="6">
+        <v>8</v>
+      </c>
+      <c r="L16" s="6">
+        <v>7</v>
+      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="36">
+        <v>6.3</v>
+      </c>
+      <c r="U16" s="41">
+        <v>0</v>
+      </c>
+      <c r="V16" s="7">
+        <v>0</v>
+      </c>
+      <c r="W16" s="20">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1"/>
+    </row>
+    <row r="17" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>15</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="19">
+        <v>5</v>
+      </c>
+      <c r="D17" s="6">
+        <v>8</v>
+      </c>
+      <c r="E17" s="6">
+        <v>9</v>
+      </c>
+      <c r="F17" s="6">
+        <v>6</v>
+      </c>
+      <c r="G17" s="6">
+        <v>5</v>
+      </c>
+      <c r="H17" s="6">
+        <v>5</v>
+      </c>
+      <c r="I17" s="6">
+        <v>5</v>
+      </c>
+      <c r="J17" s="6">
+        <v>6</v>
+      </c>
+      <c r="K17" s="6">
+        <v>9</v>
+      </c>
+      <c r="L17" s="6">
+        <v>7</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" s="36">
+        <v>6.5</v>
+      </c>
+      <c r="U17" s="41">
+        <v>64</v>
+      </c>
+      <c r="V17" s="7">
+        <v>64</v>
+      </c>
+      <c r="W17" s="20">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1"/>
+    </row>
+    <row r="18" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
+        <v>16</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="19">
+        <v>4</v>
+      </c>
+      <c r="D18" s="6">
+        <v>6</v>
+      </c>
+      <c r="E18" s="6">
+        <v>9</v>
+      </c>
+      <c r="F18" s="6">
+        <v>7</v>
+      </c>
+      <c r="G18" s="6">
+        <v>6</v>
+      </c>
+      <c r="H18" s="6">
+        <v>6</v>
+      </c>
+      <c r="I18" s="6">
+        <v>5</v>
+      </c>
+      <c r="J18" s="6">
+        <v>9</v>
+      </c>
+      <c r="K18" s="6">
+        <v>8</v>
+      </c>
+      <c r="L18" s="6">
+        <v>6</v>
+      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="36">
+        <v>6.6</v>
+      </c>
+      <c r="U18" s="41">
+        <v>39</v>
+      </c>
+      <c r="V18" s="7">
+        <v>39</v>
+      </c>
+      <c r="W18" s="20">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="19">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6">
+        <v>9</v>
+      </c>
+      <c r="E19" s="6">
+        <v>10</v>
+      </c>
+      <c r="F19" s="6">
+        <v>6</v>
+      </c>
+      <c r="G19" s="6">
+        <v>6</v>
+      </c>
+      <c r="H19" s="6">
+        <v>6</v>
+      </c>
+      <c r="I19" s="6">
+        <v>6</v>
+      </c>
+      <c r="J19" s="6">
+        <v>8</v>
+      </c>
+      <c r="K19" s="6">
+        <v>9</v>
+      </c>
+      <c r="L19" s="6">
+        <v>6</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T19" s="36">
+        <v>7.2</v>
+      </c>
+      <c r="U19" s="41">
+        <v>0</v>
+      </c>
+      <c r="V19" s="7">
+        <v>0</v>
+      </c>
+      <c r="W19" s="20">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>18</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="19">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6">
+        <v>9</v>
+      </c>
+      <c r="E20" s="6">
+        <v>9</v>
+      </c>
+      <c r="F20" s="6">
+        <v>9</v>
+      </c>
+      <c r="G20" s="6">
+        <v>8</v>
+      </c>
+      <c r="H20" s="6">
+        <v>7</v>
+      </c>
+      <c r="I20" s="6">
+        <v>8</v>
+      </c>
+      <c r="J20" s="6">
+        <v>8</v>
+      </c>
+      <c r="K20" s="6">
+        <v>8</v>
+      </c>
+      <c r="L20" s="6">
+        <v>8</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="36">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="U20" s="41">
+        <v>25</v>
+      </c>
+      <c r="V20" s="7">
+        <v>25</v>
+      </c>
+      <c r="W20" s="20">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1"/>
+    </row>
+    <row r="21" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>19</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="19">
+        <v>8</v>
+      </c>
+      <c r="D21" s="6">
+        <v>8</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="6">
+        <v>8</v>
+      </c>
+      <c r="G21" s="6">
+        <v>7</v>
+      </c>
+      <c r="H21" s="6">
+        <v>9</v>
+      </c>
+      <c r="I21" s="6">
+        <v>8</v>
+      </c>
+      <c r="J21" s="6">
+        <v>8</v>
+      </c>
+      <c r="K21" s="6">
+        <v>9</v>
+      </c>
+      <c r="L21" s="6">
+        <v>9</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="36">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="U21" s="41">
+        <v>23</v>
+      </c>
+      <c r="V21" s="7">
+        <v>23</v>
+      </c>
+      <c r="W21" s="20">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19">
+        <v>20</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="19">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6">
+        <v>9</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="6">
+        <v>8</v>
+      </c>
+      <c r="G22" s="6">
+        <v>7</v>
+      </c>
+      <c r="H22" s="6">
+        <v>7</v>
+      </c>
+      <c r="I22" s="6">
+        <v>7</v>
+      </c>
+      <c r="J22" s="6">
+        <v>8</v>
+      </c>
+      <c r="K22" s="6">
+        <v>9</v>
+      </c>
+      <c r="L22" s="6">
+        <v>9</v>
+      </c>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="36">
+        <v>8.11</v>
+      </c>
+      <c r="U22" s="41">
+        <v>107</v>
+      </c>
+      <c r="V22" s="7">
+        <v>107</v>
+      </c>
+      <c r="W22" s="20">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
+        <v>21</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="19">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6">
+        <v>9</v>
+      </c>
+      <c r="E23" s="6">
+        <v>9</v>
+      </c>
+      <c r="F23" s="6">
+        <v>7</v>
+      </c>
+      <c r="G23" s="6">
+        <v>7</v>
+      </c>
+      <c r="H23" s="6">
+        <v>9</v>
+      </c>
+      <c r="I23" s="6">
+        <v>8</v>
+      </c>
+      <c r="J23" s="6">
+        <v>8</v>
+      </c>
+      <c r="K23" s="6">
+        <v>9</v>
+      </c>
+      <c r="L23" s="6">
+        <v>9</v>
+      </c>
+      <c r="M23" s="6"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T23" s="36">
+        <v>8.4</v>
+      </c>
+      <c r="U23" s="41">
+        <v>42</v>
+      </c>
+      <c r="V23" s="7">
+        <v>42</v>
+      </c>
+      <c r="W23" s="20">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19">
+        <v>22</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="19">
+        <v>5</v>
+      </c>
+      <c r="D24" s="6">
+        <v>7</v>
+      </c>
+      <c r="E24" s="6">
+        <v>9</v>
+      </c>
+      <c r="F24" s="6">
+        <v>7</v>
+      </c>
+      <c r="G24" s="6">
+        <v>4</v>
+      </c>
+      <c r="H24" s="6">
+        <v>7</v>
+      </c>
+      <c r="I24" s="6">
+        <v>5</v>
+      </c>
+      <c r="J24" s="6">
+        <v>7</v>
+      </c>
+      <c r="K24" s="6">
+        <v>9</v>
+      </c>
+      <c r="L24" s="6">
+        <v>8</v>
+      </c>
+      <c r="M24" s="6"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="36">
+        <v>6.8</v>
+      </c>
+      <c r="U24" s="41">
+        <v>21</v>
+      </c>
+      <c r="V24" s="7">
+        <v>21</v>
+      </c>
+      <c r="W24" s="20">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1"/>
+    </row>
+    <row r="25" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
+        <v>23</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="19">
+        <v>6</v>
+      </c>
+      <c r="D25" s="6">
+        <v>5</v>
+      </c>
+      <c r="E25" s="6">
+        <v>10</v>
+      </c>
+      <c r="F25" s="6">
+        <v>5</v>
+      </c>
+      <c r="G25" s="6">
+        <v>5</v>
+      </c>
+      <c r="H25" s="6">
+        <v>6</v>
+      </c>
+      <c r="I25" s="6">
+        <v>4</v>
+      </c>
+      <c r="J25" s="6">
+        <v>6</v>
+      </c>
+      <c r="K25" s="6">
+        <v>8</v>
+      </c>
+      <c r="L25" s="6">
+        <v>8</v>
+      </c>
+      <c r="M25" s="6"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T25" s="36">
+        <v>6.3</v>
+      </c>
+      <c r="U25" s="41">
+        <v>2</v>
+      </c>
+      <c r="V25" s="7">
+        <v>2</v>
+      </c>
+      <c r="W25" s="20">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21">
+        <v>24</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="21">
+        <v>5</v>
+      </c>
+      <c r="D26" s="22">
+        <v>5</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="22">
+        <v>6</v>
+      </c>
+      <c r="G26" s="22">
+        <v>5</v>
+      </c>
+      <c r="H26" s="22">
+        <v>6</v>
+      </c>
+      <c r="I26" s="22">
+        <v>5</v>
+      </c>
+      <c r="J26" s="22">
+        <v>5</v>
+      </c>
+      <c r="K26" s="22">
+        <v>8</v>
+      </c>
+      <c r="L26" s="22">
+        <v>7</v>
+      </c>
+      <c r="M26" s="22"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="37">
+        <v>5.78</v>
+      </c>
+      <c r="U26" s="42">
+        <v>55</v>
+      </c>
+      <c r="V26" s="24">
+        <v>55</v>
+      </c>
+      <c r="W26" s="25">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1"/>
+    </row>
+    <row r="27" spans="1:24" s="8" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="T27" s="12">
+        <v>7.17</v>
+      </c>
+      <c r="U27" s="12">
+        <v>827</v>
+      </c>
+      <c r="V27" s="12">
+        <v>827</v>
+      </c>
+      <c r="W27" s="13">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+    </row>
+    <row r="30" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="E1:R1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:W1"/>
+  </mergeCells>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E15:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="60.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="15" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="57"/>
+    </row>
+    <row r="16" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="57"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="57"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="57"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="57"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E15:E20"/>
+  </mergeCells>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AppData/Reports/GroupProgressSheet/Template.xlsx
+++ b/AppData/Reports/GroupProgressSheet/Template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>Итоговые оценки и зачеты за I семестр</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>не уважительная</t>
+  </si>
+  <si>
+    <t>ДВИЖЕНИЕ ЧИСЛЕННОСТИ УЧАЩИХСЯ ЗА ИСТЕКШИЙ СЕМЕСТР (учебного года)</t>
+  </si>
+  <si>
+    <t>Число учащихся на начало учебного года dsfsdfsd sdfsdfsd sdfsdfsdf sdfsdf sdfsdfs sdfsdf</t>
   </si>
 </sst>
 </file>
@@ -462,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -503,137 +509,146 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -918,7 +933,7 @@
   <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection activeCell="AD23" sqref="AD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,149 +949,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="54" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="26" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="U1" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="15"/>
-      <c r="W1" s="18"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="56"/>
       <c r="X1" s="2"/>
     </row>
     <row r="2" spans="1:24" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="44" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="31" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="32" t="s">
+      <c r="V2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="23" t="s">
         <v>39</v>
       </c>
       <c r="X2" s="2"/>
     </row>
     <row r="3" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52">
+      <c r="A3" s="41">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="34">
-        <v>6</v>
-      </c>
-      <c r="D3" s="49">
-        <v>8</v>
-      </c>
-      <c r="E3" s="49">
+      <c r="C3" s="24">
+        <v>6</v>
+      </c>
+      <c r="D3" s="38">
+        <v>8</v>
+      </c>
+      <c r="E3" s="38">
         <v>10</v>
       </c>
-      <c r="F3" s="49">
-        <v>6</v>
-      </c>
-      <c r="G3" s="49">
-        <v>5</v>
-      </c>
-      <c r="H3" s="49">
-        <v>7</v>
-      </c>
-      <c r="I3" s="49">
-        <v>5</v>
-      </c>
-      <c r="J3" s="49">
-        <v>7</v>
-      </c>
-      <c r="K3" s="49">
-        <v>9</v>
-      </c>
-      <c r="L3" s="49">
-        <v>9</v>
-      </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="T3" s="35">
+      <c r="F3" s="38">
+        <v>6</v>
+      </c>
+      <c r="G3" s="38">
+        <v>5</v>
+      </c>
+      <c r="H3" s="38">
+        <v>7</v>
+      </c>
+      <c r="I3" s="38">
+        <v>5</v>
+      </c>
+      <c r="J3" s="38">
+        <v>7</v>
+      </c>
+      <c r="K3" s="38">
+        <v>9</v>
+      </c>
+      <c r="L3" s="38">
+        <v>9</v>
+      </c>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="25">
         <v>7.2</v>
       </c>
-      <c r="U3" s="38">
-        <v>0</v>
-      </c>
-      <c r="V3" s="39">
-        <v>0</v>
-      </c>
-      <c r="W3" s="40">
+      <c r="U3" s="28">
+        <v>0</v>
+      </c>
+      <c r="V3" s="29">
+        <v>0</v>
+      </c>
+      <c r="W3" s="30">
         <v>0</v>
       </c>
       <c r="X3" s="1"/>
     </row>
     <row r="4" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="19">
+      <c r="B4" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="14">
         <v>4</v>
       </c>
       <c r="D4" s="6">
@@ -1111,32 +1126,32 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="T4" s="36">
+      <c r="R4" s="26"/>
+      <c r="S4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" s="26">
         <v>4.8899999999999997</v>
       </c>
-      <c r="U4" s="41">
+      <c r="U4" s="31">
         <v>0</v>
       </c>
       <c r="V4" s="7">
         <v>0</v>
       </c>
-      <c r="W4" s="20">
+      <c r="W4" s="15">
         <v>0</v>
       </c>
       <c r="X4" s="1"/>
     </row>
     <row r="5" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="19">
+      <c r="B5" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="14">
         <v>4</v>
       </c>
       <c r="D5" s="6">
@@ -1171,32 +1186,32 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="T5" s="36">
+      <c r="R5" s="26"/>
+      <c r="S5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" s="26">
         <v>5.7</v>
       </c>
-      <c r="U5" s="41">
+      <c r="U5" s="31">
         <v>0</v>
       </c>
       <c r="V5" s="7">
         <v>0</v>
       </c>
-      <c r="W5" s="20">
+      <c r="W5" s="15">
         <v>0</v>
       </c>
       <c r="X5" s="1"/>
     </row>
     <row r="6" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
-        <v>4</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="19">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="14">
         <v>6</v>
       </c>
       <c r="D6" s="6">
@@ -1231,32 +1246,32 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="T6" s="36">
+      <c r="R6" s="26"/>
+      <c r="S6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" s="26">
         <v>7.2</v>
       </c>
-      <c r="U6" s="41">
+      <c r="U6" s="31">
         <v>48</v>
       </c>
       <c r="V6" s="7">
         <v>48</v>
       </c>
-      <c r="W6" s="20">
+      <c r="W6" s="15">
         <v>0</v>
       </c>
       <c r="X6" s="1"/>
     </row>
     <row r="7" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
-        <v>5</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="19">
+      <c r="A7" s="14">
+        <v>5</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="14">
         <v>5</v>
       </c>
       <c r="D7" s="6">
@@ -1291,32 +1306,32 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="T7" s="36">
+      <c r="R7" s="26"/>
+      <c r="S7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T7" s="26">
         <v>6.4</v>
       </c>
-      <c r="U7" s="41">
+      <c r="U7" s="31">
         <v>8</v>
       </c>
       <c r="V7" s="7">
         <v>8</v>
       </c>
-      <c r="W7" s="20">
+      <c r="W7" s="15">
         <v>0</v>
       </c>
       <c r="X7" s="1"/>
     </row>
     <row r="8" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
-        <v>6</v>
-      </c>
-      <c r="B8" s="47" t="s">
+      <c r="A8" s="14">
+        <v>6</v>
+      </c>
+      <c r="B8" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="14">
         <v>9</v>
       </c>
       <c r="D8" s="6">
@@ -1351,32 +1366,32 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="36">
+      <c r="R8" s="26"/>
+      <c r="S8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="26">
         <v>8.3000000000000007</v>
       </c>
-      <c r="U8" s="41">
+      <c r="U8" s="31">
         <v>77</v>
       </c>
       <c r="V8" s="7">
         <v>77</v>
       </c>
-      <c r="W8" s="20">
+      <c r="W8" s="15">
         <v>0</v>
       </c>
       <c r="X8" s="1"/>
     </row>
     <row r="9" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
-        <v>7</v>
-      </c>
-      <c r="B9" s="47" t="s">
+      <c r="A9" s="14">
+        <v>7</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="14">
         <v>4</v>
       </c>
       <c r="D9" s="6">
@@ -1411,32 +1426,32 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="T9" s="36">
+      <c r="R9" s="26"/>
+      <c r="S9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="26">
         <v>4.5599999999999996</v>
       </c>
-      <c r="U9" s="41">
+      <c r="U9" s="31">
         <v>79</v>
       </c>
       <c r="V9" s="7">
         <v>79</v>
       </c>
-      <c r="W9" s="20">
+      <c r="W9" s="15">
         <v>0</v>
       </c>
       <c r="X9" s="1"/>
     </row>
     <row r="10" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>8</v>
-      </c>
-      <c r="B10" s="47" t="s">
+      <c r="A10" s="14">
+        <v>8</v>
+      </c>
+      <c r="B10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="14">
         <v>9</v>
       </c>
       <c r="D10" s="6">
@@ -1471,32 +1486,32 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="T10" s="36">
+      <c r="R10" s="26"/>
+      <c r="S10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="26">
         <v>8.3000000000000007</v>
       </c>
-      <c r="U10" s="41">
+      <c r="U10" s="31">
         <v>16</v>
       </c>
       <c r="V10" s="7">
         <v>16</v>
       </c>
-      <c r="W10" s="20">
+      <c r="W10" s="15">
         <v>0</v>
       </c>
       <c r="X10" s="1"/>
     </row>
     <row r="11" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
-        <v>9</v>
-      </c>
-      <c r="B11" s="47" t="s">
+      <c r="A11" s="14">
+        <v>9</v>
+      </c>
+      <c r="B11" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="14">
         <v>9</v>
       </c>
       <c r="D11" s="6">
@@ -1531,32 +1546,32 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="T11" s="36">
+      <c r="R11" s="26"/>
+      <c r="S11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T11" s="26">
         <v>8.9</v>
       </c>
-      <c r="U11" s="41">
+      <c r="U11" s="31">
         <v>22</v>
       </c>
       <c r="V11" s="7">
         <v>22</v>
       </c>
-      <c r="W11" s="20">
+      <c r="W11" s="15">
         <v>0</v>
       </c>
       <c r="X11" s="1"/>
     </row>
     <row r="12" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="14">
         <v>9</v>
       </c>
       <c r="D12" s="6">
@@ -1591,32 +1606,32 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="T12" s="36">
+      <c r="R12" s="26"/>
+      <c r="S12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="26">
         <v>8.8000000000000007</v>
       </c>
-      <c r="U12" s="41">
+      <c r="U12" s="31">
         <v>77</v>
       </c>
       <c r="V12" s="7">
         <v>77</v>
       </c>
-      <c r="W12" s="20">
+      <c r="W12" s="15">
         <v>0</v>
       </c>
       <c r="X12" s="1"/>
     </row>
     <row r="13" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="14">
         <v>11</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="14">
         <v>5</v>
       </c>
       <c r="D13" s="6">
@@ -1651,32 +1666,32 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="T13" s="36">
+      <c r="R13" s="26"/>
+      <c r="S13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T13" s="26">
         <v>6.3</v>
       </c>
-      <c r="U13" s="41">
+      <c r="U13" s="31">
         <v>15</v>
       </c>
       <c r="V13" s="7">
         <v>15</v>
       </c>
-      <c r="W13" s="20">
+      <c r="W13" s="15">
         <v>0</v>
       </c>
       <c r="X13" s="1"/>
     </row>
     <row r="14" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="14">
         <v>12</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="14">
         <v>9</v>
       </c>
       <c r="D14" s="6">
@@ -1711,32 +1726,32 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="36">
+      <c r="R14" s="26"/>
+      <c r="S14" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="26">
         <v>8.89</v>
       </c>
-      <c r="U14" s="41">
+      <c r="U14" s="31">
         <v>39</v>
       </c>
       <c r="V14" s="7">
         <v>39</v>
       </c>
-      <c r="W14" s="20">
+      <c r="W14" s="15">
         <v>0</v>
       </c>
       <c r="X14" s="1"/>
     </row>
     <row r="15" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="14">
         <v>13</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="14">
         <v>7</v>
       </c>
       <c r="D15" s="6">
@@ -1771,32 +1786,32 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="T15" s="36">
+      <c r="R15" s="26"/>
+      <c r="S15" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="26">
         <v>8.1999999999999993</v>
       </c>
-      <c r="U15" s="41">
+      <c r="U15" s="31">
         <v>68</v>
       </c>
       <c r="V15" s="7">
         <v>68</v>
       </c>
-      <c r="W15" s="20">
+      <c r="W15" s="15">
         <v>0</v>
       </c>
       <c r="X15" s="1"/>
     </row>
     <row r="16" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="14">
         <v>14</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="14">
         <v>6</v>
       </c>
       <c r="D16" s="6">
@@ -1831,32 +1846,32 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="T16" s="36">
+      <c r="R16" s="26"/>
+      <c r="S16" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="26">
         <v>6.3</v>
       </c>
-      <c r="U16" s="41">
+      <c r="U16" s="31">
         <v>0</v>
       </c>
       <c r="V16" s="7">
         <v>0</v>
       </c>
-      <c r="W16" s="20">
+      <c r="W16" s="15">
         <v>0</v>
       </c>
       <c r="X16" s="1"/>
     </row>
     <row r="17" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="14">
         <v>15</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="14">
         <v>5</v>
       </c>
       <c r="D17" s="6">
@@ -1891,32 +1906,32 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="T17" s="36">
+      <c r="R17" s="26"/>
+      <c r="S17" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" s="26">
         <v>6.5</v>
       </c>
-      <c r="U17" s="41">
+      <c r="U17" s="31">
         <v>64</v>
       </c>
       <c r="V17" s="7">
         <v>64</v>
       </c>
-      <c r="W17" s="20">
+      <c r="W17" s="15">
         <v>0</v>
       </c>
       <c r="X17" s="1"/>
     </row>
     <row r="18" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="14">
         <v>16</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="14">
         <v>4</v>
       </c>
       <c r="D18" s="6">
@@ -1951,32 +1966,32 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="36">
+      <c r="R18" s="26"/>
+      <c r="S18" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="26">
         <v>6.6</v>
       </c>
-      <c r="U18" s="41">
+      <c r="U18" s="31">
         <v>39</v>
       </c>
       <c r="V18" s="7">
         <v>39</v>
       </c>
-      <c r="W18" s="20">
+      <c r="W18" s="15">
         <v>0</v>
       </c>
       <c r="X18" s="1"/>
     </row>
     <row r="19" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="14">
         <v>17</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="14">
         <v>6</v>
       </c>
       <c r="D19" s="6">
@@ -2011,32 +2026,32 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="T19" s="36">
+      <c r="R19" s="26"/>
+      <c r="S19" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T19" s="26">
         <v>7.2</v>
       </c>
-      <c r="U19" s="41">
+      <c r="U19" s="31">
         <v>0</v>
       </c>
       <c r="V19" s="7">
         <v>0</v>
       </c>
-      <c r="W19" s="20">
+      <c r="W19" s="15">
         <v>0</v>
       </c>
       <c r="X19" s="1"/>
     </row>
     <row r="20" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="14">
         <v>18</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="14">
         <v>8</v>
       </c>
       <c r="D20" s="6">
@@ -2071,32 +2086,32 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="36">
+      <c r="R20" s="26"/>
+      <c r="S20" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="26">
         <v>8.1999999999999993</v>
       </c>
-      <c r="U20" s="41">
+      <c r="U20" s="31">
         <v>25</v>
       </c>
       <c r="V20" s="7">
         <v>25</v>
       </c>
-      <c r="W20" s="20">
+      <c r="W20" s="15">
         <v>0</v>
       </c>
       <c r="X20" s="1"/>
     </row>
     <row r="21" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
+      <c r="A21" s="14">
         <v>19</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="14">
         <v>8</v>
       </c>
       <c r="D21" s="6">
@@ -2131,32 +2146,32 @@
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="36">
+      <c r="R21" s="26"/>
+      <c r="S21" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="26">
         <v>8.2200000000000006</v>
       </c>
-      <c r="U21" s="41">
+      <c r="U21" s="31">
         <v>23</v>
       </c>
       <c r="V21" s="7">
         <v>23</v>
       </c>
-      <c r="W21" s="20">
+      <c r="W21" s="15">
         <v>0</v>
       </c>
       <c r="X21" s="1"/>
     </row>
     <row r="22" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="14">
         <v>20</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="14">
         <v>9</v>
       </c>
       <c r="D22" s="6">
@@ -2191,32 +2206,32 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="T22" s="36">
+      <c r="R22" s="26"/>
+      <c r="S22" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="26">
         <v>8.11</v>
       </c>
-      <c r="U22" s="41">
+      <c r="U22" s="31">
         <v>107</v>
       </c>
       <c r="V22" s="7">
         <v>107</v>
       </c>
-      <c r="W22" s="20">
+      <c r="W22" s="15">
         <v>0</v>
       </c>
       <c r="X22" s="1"/>
     </row>
     <row r="23" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="14">
         <v>21</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="14">
         <v>9</v>
       </c>
       <c r="D23" s="6">
@@ -2251,32 +2266,32 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="T23" s="36">
+      <c r="R23" s="39"/>
+      <c r="S23" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T23" s="26">
         <v>8.4</v>
       </c>
-      <c r="U23" s="41">
+      <c r="U23" s="31">
         <v>42</v>
       </c>
       <c r="V23" s="7">
         <v>42</v>
       </c>
-      <c r="W23" s="20">
+      <c r="W23" s="15">
         <v>0</v>
       </c>
       <c r="X23" s="1"/>
     </row>
     <row r="24" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="14">
         <v>22</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="14">
         <v>5</v>
       </c>
       <c r="D24" s="6">
@@ -2311,32 +2326,32 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24" s="36">
+      <c r="R24" s="39"/>
+      <c r="S24" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="26">
         <v>6.8</v>
       </c>
-      <c r="U24" s="41">
+      <c r="U24" s="31">
         <v>21</v>
       </c>
       <c r="V24" s="7">
         <v>21</v>
       </c>
-      <c r="W24" s="20">
+      <c r="W24" s="15">
         <v>0</v>
       </c>
       <c r="X24" s="1"/>
     </row>
     <row r="25" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
+      <c r="A25" s="14">
         <v>23</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="14">
         <v>6</v>
       </c>
       <c r="D25" s="6">
@@ -2371,80 +2386,80 @@
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="T25" s="36">
+      <c r="R25" s="39"/>
+      <c r="S25" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T25" s="26">
         <v>6.3</v>
       </c>
-      <c r="U25" s="41">
+      <c r="U25" s="31">
         <v>2</v>
       </c>
       <c r="V25" s="7">
         <v>2</v>
       </c>
-      <c r="W25" s="20">
+      <c r="W25" s="15">
         <v>0</v>
       </c>
       <c r="X25" s="1"/>
     </row>
     <row r="26" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21">
+      <c r="A26" s="16">
         <v>24</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="21">
-        <v>5</v>
-      </c>
-      <c r="D26" s="22">
-        <v>5</v>
-      </c>
-      <c r="E26" s="22" t="s">
+      <c r="C26" s="16">
+        <v>5</v>
+      </c>
+      <c r="D26" s="17">
+        <v>5</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="22">
-        <v>6</v>
-      </c>
-      <c r="G26" s="22">
-        <v>5</v>
-      </c>
-      <c r="H26" s="22">
-        <v>6</v>
-      </c>
-      <c r="I26" s="22">
-        <v>5</v>
-      </c>
-      <c r="J26" s="22">
-        <v>5</v>
-      </c>
-      <c r="K26" s="22">
-        <v>8</v>
-      </c>
-      <c r="L26" s="22">
-        <v>7</v>
-      </c>
-      <c r="M26" s="22"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="T26" s="37">
+      <c r="F26" s="17">
+        <v>6</v>
+      </c>
+      <c r="G26" s="17">
+        <v>5</v>
+      </c>
+      <c r="H26" s="17">
+        <v>6</v>
+      </c>
+      <c r="I26" s="17">
+        <v>5</v>
+      </c>
+      <c r="J26" s="17">
+        <v>5</v>
+      </c>
+      <c r="K26" s="17">
+        <v>8</v>
+      </c>
+      <c r="L26" s="17">
+        <v>7</v>
+      </c>
+      <c r="M26" s="17"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="27">
         <v>5.78</v>
       </c>
-      <c r="U26" s="42">
+      <c r="U26" s="32">
         <v>55</v>
       </c>
-      <c r="V26" s="24">
+      <c r="V26" s="19">
         <v>55</v>
       </c>
-      <c r="W26" s="25">
+      <c r="W26" s="20">
         <v>0</v>
       </c>
       <c r="X26" s="1"/>
@@ -2539,13 +2554,13 @@
     <row r="30" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="E1:R1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:W1"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2554,25 +2569,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E15:E20"/>
+  <dimension ref="A4:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="1" max="1" width="48.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="60.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="15" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="58"/>
+    </row>
+    <row r="5" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="59">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E15" s="57"/>
     </row>
-    <row r="16" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E16" s="57"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.25">
@@ -2588,8 +2617,9 @@
       <c r="E20" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E15:E20"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/AppData/Reports/GroupProgressSheet/Template.xlsx
+++ b/AppData/Reports/GroupProgressSheet/Template.xlsx
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
-  <si>
-    <t>Итоговые оценки и зачеты за I семестр</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="72">
   <si>
     <t>Средний балл</t>
   </si>
@@ -148,14 +145,173 @@
     <t>ДВИЖЕНИЕ ЧИСЛЕННОСТИ УЧАЩИХСЯ ЗА ИСТЕКШИЙ СЕМЕСТР (учебного года)</t>
   </si>
   <si>
-    <t>Число учащихся на начало учебного года dsfsdfsd sdfsdfsd sdfsdfsdf sdfsdf sdfsdfs sdfsdf</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Число учащихся на начало учебного года</t>
+  </si>
+  <si>
+    <t>Прибыло в течение семестра (учебного года) всего</t>
+  </si>
+  <si>
+    <t>ВЫБЫЛО УЧАЩИХСЯ ЗА СЕМЕСТР (учебного года) ВСЕГО   –  
+ИЗ НИХ:</t>
+  </si>
+  <si>
+    <t>Переведено с заочного обучения на дневное</t>
+  </si>
+  <si>
+    <t>Переведено из других техникумов</t>
+  </si>
+  <si>
+    <t>Восстановлено после демобилизации из состава Советской Армии</t>
+  </si>
+  <si>
+    <t>Вышло из академического отпуска</t>
+  </si>
+  <si>
+    <t>ИЗ НИХ:</t>
+  </si>
+  <si>
+    <t>по неуспеваемости</t>
+  </si>
+  <si>
+    <t>за нарушение дисциплины</t>
+  </si>
+  <si>
+    <t>переведено на заочное отделение</t>
+  </si>
+  <si>
+    <t>переведено в другие специальные учебные заведения</t>
+  </si>
+  <si>
+    <t>направлено на действительную службу в Советскую Армию</t>
+  </si>
+  <si>
+    <t>по семейным обстоятельствам</t>
+  </si>
+  <si>
+    <t>ушло в академический отпуск</t>
+  </si>
+  <si>
+    <t>ИТОГИ СЕМЕСТРОВЫХ И ПЕРЕВОДНЫХ ЭКЗАМЕНОВ</t>
+  </si>
+  <si>
+    <t>Численность учащихся к началу семестровых и переводных экзаменов</t>
+  </si>
+  <si>
+    <t>Явилось на экзамены</t>
+  </si>
+  <si>
+    <t>в том числе сдали экзамены и зачеты по всем предметам учебного плана</t>
+  </si>
+  <si>
+    <t>не ниже «8-9»</t>
+  </si>
+  <si>
+    <t>не ниже «6-7»</t>
+  </si>
+  <si>
+    <t>имели неудовлетворительную оценку по 1-2 предметам</t>
+  </si>
+  <si>
+    <t>имели неудовлетворительную оценку по трем и более предметам</t>
+  </si>
+  <si>
+    <t>Успеваемость в группе</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Куратор группы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">                     </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Аргер Н.В. </t>
+    </r>
+  </si>
+  <si>
+    <t>Итоговые оценки и зачеты за 3 семестр</t>
+  </si>
+  <si>
+    <t>!-</t>
+  </si>
+  <si>
+    <t>!3</t>
+  </si>
+  <si>
+    <t>!12</t>
+  </si>
+  <si>
+    <t>Семестр 1 - 5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">СВОДНАЯ ВЕДОМОСТЬ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>успеваемости учащихся 2 курса, группы Т291-19
+за 3 семестр 2020/2021 учебного года</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,14 +335,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -223,6 +371,30 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -468,27 +640,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -506,13 +678,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -524,46 +696,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -572,13 +744,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -593,62 +762,85 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -930,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X30"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AD23" sqref="AD23"/>
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,127 +1140,153 @@
     <col min="25" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47"/>
-      <c r="B1" s="49" t="s">
+    <row r="1" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50"/>
+      <c r="B1" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="49"/>
+      <c r="E1" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="T1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="45"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="2"/>
+    </row>
+    <row r="2" spans="1:24" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="51" t="s">
+      <c r="E2" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="55"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="53" t="s">
+      <c r="W2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="2"/>
+    </row>
+    <row r="3" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40">
         <v>1</v>
       </c>
-      <c r="U1" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1" s="55"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="2"/>
-    </row>
-    <row r="2" spans="1:24" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="21" t="s">
+      <c r="B3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="X2" s="2"/>
-    </row>
-    <row r="3" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41">
-        <v>1</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>3</v>
-      </c>
       <c r="C3" s="24">
         <v>6</v>
       </c>
-      <c r="D3" s="38">
-        <v>8</v>
-      </c>
-      <c r="E3" s="38">
+      <c r="D3" s="37">
+        <v>8</v>
+      </c>
+      <c r="E3" s="37">
         <v>10</v>
       </c>
-      <c r="F3" s="38">
-        <v>6</v>
-      </c>
-      <c r="G3" s="38">
-        <v>5</v>
-      </c>
-      <c r="H3" s="38">
+      <c r="F3" s="37">
+        <v>6</v>
+      </c>
+      <c r="G3" s="37">
+        <v>5</v>
+      </c>
+      <c r="H3" s="37">
         <v>7</v>
       </c>
-      <c r="I3" s="38">
-        <v>5</v>
-      </c>
-      <c r="J3" s="38">
+      <c r="I3" s="37">
+        <v>5</v>
+      </c>
+      <c r="J3" s="37">
         <v>7</v>
       </c>
-      <c r="K3" s="38">
-        <v>9</v>
-      </c>
-      <c r="L3" s="38">
-        <v>9</v>
-      </c>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
+      <c r="K3" s="37">
+        <v>9</v>
+      </c>
+      <c r="L3" s="37">
+        <v>9</v>
+      </c>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
       <c r="R3" s="25"/>
       <c r="S3" s="24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T3" s="25">
         <v>7.2</v>
@@ -1088,8 +1306,8 @@
       <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>5</v>
+      <c r="B4" s="35" t="s">
+        <v>4</v>
       </c>
       <c r="C4" s="14">
         <v>4</v>
@@ -1098,7 +1316,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="6">
         <v>4</v>
@@ -1128,7 +1346,7 @@
       <c r="Q4" s="6"/>
       <c r="R4" s="26"/>
       <c r="S4" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T4" s="26">
         <v>4.8899999999999997</v>
@@ -1148,8 +1366,8 @@
       <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>7</v>
+      <c r="B5" s="35" t="s">
+        <v>6</v>
       </c>
       <c r="C5" s="14">
         <v>4</v>
@@ -1188,7 +1406,7 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="26"/>
       <c r="S5" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T5" s="26">
         <v>5.7</v>
@@ -1208,8 +1426,8 @@
       <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>8</v>
+      <c r="B6" s="35" t="s">
+        <v>7</v>
       </c>
       <c r="C6" s="14">
         <v>6</v>
@@ -1248,7 +1466,7 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="26"/>
       <c r="S6" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T6" s="26">
         <v>7.2</v>
@@ -1268,8 +1486,8 @@
       <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>9</v>
+      <c r="B7" s="35" t="s">
+        <v>8</v>
       </c>
       <c r="C7" s="14">
         <v>5</v>
@@ -1308,7 +1526,7 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="26"/>
       <c r="S7" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T7" s="26">
         <v>6.4</v>
@@ -1328,8 +1546,8 @@
       <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>10</v>
+      <c r="B8" s="35" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="14">
         <v>9</v>
@@ -1368,7 +1586,7 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="26"/>
       <c r="S8" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T8" s="26">
         <v>8.3000000000000007</v>
@@ -1388,8 +1606,8 @@
       <c r="A9" s="14">
         <v>7</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>11</v>
+      <c r="B9" s="35" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="14">
         <v>4</v>
@@ -1398,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="6">
         <v>4</v>
@@ -1428,7 +1646,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="26"/>
       <c r="S9" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T9" s="26">
         <v>4.5599999999999996</v>
@@ -1448,8 +1666,8 @@
       <c r="A10" s="14">
         <v>8</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>12</v>
+      <c r="B10" s="35" t="s">
+        <v>11</v>
       </c>
       <c r="C10" s="14">
         <v>9</v>
@@ -1488,7 +1706,7 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="26"/>
       <c r="S10" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T10" s="26">
         <v>8.3000000000000007</v>
@@ -1508,8 +1726,8 @@
       <c r="A11" s="14">
         <v>9</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>13</v>
+      <c r="B11" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="C11" s="14">
         <v>9</v>
@@ -1548,7 +1766,7 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="26"/>
       <c r="S11" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T11" s="26">
         <v>8.9</v>
@@ -1568,8 +1786,8 @@
       <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>14</v>
+      <c r="B12" s="35" t="s">
+        <v>13</v>
       </c>
       <c r="C12" s="14">
         <v>9</v>
@@ -1608,7 +1826,7 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="26"/>
       <c r="S12" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T12" s="26">
         <v>8.8000000000000007</v>
@@ -1628,8 +1846,8 @@
       <c r="A13" s="14">
         <v>11</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>15</v>
+      <c r="B13" s="35" t="s">
+        <v>14</v>
       </c>
       <c r="C13" s="14">
         <v>5</v>
@@ -1668,7 +1886,7 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="26"/>
       <c r="S13" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T13" s="26">
         <v>6.3</v>
@@ -1688,8 +1906,8 @@
       <c r="A14" s="14">
         <v>12</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>16</v>
+      <c r="B14" s="35" t="s">
+        <v>15</v>
       </c>
       <c r="C14" s="14">
         <v>9</v>
@@ -1698,7 +1916,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="6">
         <v>9</v>
@@ -1728,7 +1946,7 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="26"/>
       <c r="S14" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T14" s="26">
         <v>8.89</v>
@@ -1748,8 +1966,8 @@
       <c r="A15" s="14">
         <v>13</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>17</v>
+      <c r="B15" s="35" t="s">
+        <v>16</v>
       </c>
       <c r="C15" s="14">
         <v>7</v>
@@ -1788,7 +2006,7 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="26"/>
       <c r="S15" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T15" s="26">
         <v>8.1999999999999993</v>
@@ -1808,8 +2026,8 @@
       <c r="A16" s="14">
         <v>14</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>18</v>
+      <c r="B16" s="35" t="s">
+        <v>17</v>
       </c>
       <c r="C16" s="14">
         <v>6</v>
@@ -1848,7 +2066,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="26"/>
       <c r="S16" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T16" s="26">
         <v>6.3</v>
@@ -1868,8 +2086,8 @@
       <c r="A17" s="14">
         <v>15</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>19</v>
+      <c r="B17" s="35" t="s">
+        <v>18</v>
       </c>
       <c r="C17" s="14">
         <v>5</v>
@@ -1908,7 +2126,7 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="26"/>
       <c r="S17" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T17" s="26">
         <v>6.5</v>
@@ -1928,8 +2146,8 @@
       <c r="A18" s="14">
         <v>16</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>20</v>
+      <c r="B18" s="35" t="s">
+        <v>19</v>
       </c>
       <c r="C18" s="14">
         <v>4</v>
@@ -1968,7 +2186,7 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="26"/>
       <c r="S18" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T18" s="26">
         <v>6.6</v>
@@ -1988,8 +2206,8 @@
       <c r="A19" s="14">
         <v>17</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>21</v>
+      <c r="B19" s="35" t="s">
+        <v>20</v>
       </c>
       <c r="C19" s="14">
         <v>6</v>
@@ -2028,7 +2246,7 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="26"/>
       <c r="S19" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T19" s="26">
         <v>7.2</v>
@@ -2048,8 +2266,8 @@
       <c r="A20" s="14">
         <v>18</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>22</v>
+      <c r="B20" s="35" t="s">
+        <v>21</v>
       </c>
       <c r="C20" s="14">
         <v>8</v>
@@ -2088,7 +2306,7 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="26"/>
       <c r="S20" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T20" s="26">
         <v>8.1999999999999993</v>
@@ -2108,8 +2326,8 @@
       <c r="A21" s="14">
         <v>19</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>23</v>
+      <c r="B21" s="35" t="s">
+        <v>22</v>
       </c>
       <c r="C21" s="14">
         <v>8</v>
@@ -2118,7 +2336,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" s="6">
         <v>8</v>
@@ -2148,7 +2366,7 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="26"/>
       <c r="S21" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T21" s="26">
         <v>8.2200000000000006</v>
@@ -2168,8 +2386,8 @@
       <c r="A22" s="14">
         <v>20</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>24</v>
+      <c r="B22" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="C22" s="14">
         <v>9</v>
@@ -2178,7 +2396,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" s="6">
         <v>8</v>
@@ -2208,7 +2426,7 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="26"/>
       <c r="S22" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T22" s="26">
         <v>8.11</v>
@@ -2228,8 +2446,8 @@
       <c r="A23" s="14">
         <v>21</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>25</v>
+      <c r="B23" s="35" t="s">
+        <v>24</v>
       </c>
       <c r="C23" s="14">
         <v>9</v>
@@ -2266,9 +2484,9 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
-      <c r="R23" s="39"/>
+      <c r="R23" s="38"/>
       <c r="S23" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T23" s="26">
         <v>8.4</v>
@@ -2288,8 +2506,8 @@
       <c r="A24" s="14">
         <v>22</v>
       </c>
-      <c r="B24" s="36" t="s">
-        <v>26</v>
+      <c r="B24" s="35" t="s">
+        <v>25</v>
       </c>
       <c r="C24" s="14">
         <v>5</v>
@@ -2326,9 +2544,9 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
-      <c r="R24" s="39"/>
+      <c r="R24" s="38"/>
       <c r="S24" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T24" s="26">
         <v>6.8</v>
@@ -2348,8 +2566,8 @@
       <c r="A25" s="14">
         <v>23</v>
       </c>
-      <c r="B25" s="36" t="s">
-        <v>27</v>
+      <c r="B25" s="35" t="s">
+        <v>26</v>
       </c>
       <c r="C25" s="14">
         <v>6</v>
@@ -2386,9 +2604,9 @@
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
-      <c r="R25" s="39"/>
+      <c r="R25" s="38"/>
       <c r="S25" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T25" s="26">
         <v>6.3</v>
@@ -2408,8 +2626,8 @@
       <c r="A26" s="16">
         <v>24</v>
       </c>
-      <c r="B26" s="37" t="s">
-        <v>28</v>
+      <c r="B26" s="36" t="s">
+        <v>27</v>
       </c>
       <c r="C26" s="16">
         <v>5</v>
@@ -2418,7 +2636,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26" s="17">
         <v>6</v>
@@ -2446,9 +2664,9 @@
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
       <c r="Q26" s="18"/>
-      <c r="R26" s="40"/>
+      <c r="R26" s="39"/>
       <c r="S26" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T26" s="27">
         <v>5.78</v>
@@ -2483,7 +2701,7 @@
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
       <c r="S27" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T27" s="12">
         <v>7.17</v>
@@ -2552,6 +2770,11 @@
       <c r="X29" s="2"/>
     </row>
     <row r="30" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="T1:T2"/>
@@ -2569,59 +2792,282 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E20"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="60.5703125" customWidth="1"/>
+    <col min="1" max="1" width="60" style="58" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="60" customWidth="1"/>
+    <col min="3" max="3" width="13" style="57" customWidth="1"/>
+    <col min="4" max="4" width="55.28515625" style="57" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+    <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="64"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="58"/>
-    </row>
-    <row r="5" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="59">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="57"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E16" s="57"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="57"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="57"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="57"/>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="57"/>
+      <c r="C3" s="64"/>
+    </row>
+    <row r="4" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="61"/>
+      <c r="C4" s="64"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="63"/>
+      <c r="C7" s="64"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="63"/>
+      <c r="C8" s="64"/>
+    </row>
+    <row r="9" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="61"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="64"/>
+      <c r="D10" s="56"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="64"/>
+      <c r="D11" s="56"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="56"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="64"/>
+      <c r="D13" s="56"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="64"/>
+      <c r="D14" s="56"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="64"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="64"/>
+    </row>
+    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="61"/>
+      <c r="C17" s="64"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="64"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="64"/>
+    </row>
+    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="64"/>
+    </row>
+    <row r="21" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="61"/>
+      <c r="C21" s="64"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="64"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="64"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="64"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="64"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="66">
+        <v>1</v>
+      </c>
+      <c r="C26" s="64"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="67"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="64"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="63"/>
+      <c r="C28" s="64"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="67"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="64"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="67"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="64"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="67"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E15:E20"/>
+  <mergeCells count="6">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A17:B17"/>
   </mergeCells>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0.31496062992125984"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AppData/Reports/GroupProgressSheet/Template.xlsx
+++ b/AppData/Reports/GroupProgressSheet/Template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="71">
   <si>
     <t>Средний балл</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>Экзамен</t>
-  </si>
-  <si>
-    <t>Иностранный яхык (профессиональная лексика)</t>
   </si>
   <si>
     <t>Кол-во пропущен
@@ -765,49 +762,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -820,9 +775,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -840,6 +792,51 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1122,127 +1119,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X31"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" style="4" customWidth="1"/>
-    <col min="3" max="18" width="4.85546875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="7.85546875" style="4" customWidth="1"/>
-    <col min="20" max="20" width="5" style="5" customWidth="1"/>
-    <col min="21" max="23" width="4.85546875" style="4" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" style="4" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="17" width="4.85546875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="5" style="5" customWidth="1"/>
+    <col min="20" max="22" width="4.85546875" style="4" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" style="4" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50"/>
-      <c r="B1" s="52" t="s">
+    <row r="1" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="61"/>
+      <c r="B1" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="48"/>
       <c r="S1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="57"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" spans="1:23" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="62"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="66"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="U1" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="V1" s="45"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="2"/>
-    </row>
-    <row r="2" spans="1:24" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="55"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="2"/>
-    </row>
-    <row r="3" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40">
         <v>1</v>
       </c>
@@ -1253,56 +1246,53 @@
         <v>6</v>
       </c>
       <c r="D3" s="37">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" s="37">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" s="37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" s="37">
+        <v>7</v>
+      </c>
+      <c r="H3" s="37">
         <v>5</v>
       </c>
-      <c r="H3" s="37">
+      <c r="I3" s="37">
         <v>7</v>
       </c>
-      <c r="I3" s="37">
-        <v>5</v>
-      </c>
       <c r="J3" s="37">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K3" s="37">
         <v>9</v>
       </c>
-      <c r="L3" s="37">
-        <v>9</v>
-      </c>
+      <c r="L3" s="37"/>
       <c r="M3" s="37"/>
       <c r="N3" s="37"/>
       <c r="O3" s="37"/>
       <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="24" t="s">
+      <c r="Q3" s="25"/>
+      <c r="R3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="25">
+      <c r="S3" s="25">
         <v>7.2</v>
       </c>
-      <c r="U3" s="28">
-        <v>0</v>
-      </c>
-      <c r="V3" s="29">
-        <v>0</v>
-      </c>
-      <c r="W3" s="30">
-        <v>0</v>
-      </c>
-      <c r="X3" s="1"/>
-    </row>
-    <row r="4" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T3" s="28">
+        <v>0</v>
+      </c>
+      <c r="U3" s="29">
+        <v>0</v>
+      </c>
+      <c r="V3" s="30">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -1312,57 +1302,54 @@
       <c r="C4" s="14">
         <v>4</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="6">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6">
         <v>5</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="6">
+        <v>6</v>
+      </c>
+      <c r="H4" s="6">
         <v>4</v>
-      </c>
-      <c r="G4" s="6">
-        <v>5</v>
-      </c>
-      <c r="H4" s="6">
-        <v>6</v>
       </c>
       <c r="I4" s="6">
         <v>4</v>
       </c>
       <c r="J4" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K4" s="6">
-        <v>7</v>
-      </c>
-      <c r="L4" s="6">
         <v>5</v>
       </c>
+      <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="14" t="s">
+      <c r="Q4" s="26"/>
+      <c r="R4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="26">
+      <c r="S4" s="26">
         <v>4.8899999999999997</v>
       </c>
-      <c r="U4" s="31">
-        <v>0</v>
-      </c>
-      <c r="V4" s="7">
-        <v>0</v>
-      </c>
-      <c r="W4" s="15">
-        <v>0</v>
-      </c>
-      <c r="X4" s="1"/>
-    </row>
-    <row r="5" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T4" s="31">
+        <v>0</v>
+      </c>
+      <c r="U4" s="7">
+        <v>0</v>
+      </c>
+      <c r="V4" s="15">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>3</v>
       </c>
@@ -1373,56 +1360,53 @@
         <v>4</v>
       </c>
       <c r="D5" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E5" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F5" s="6">
         <v>4</v>
       </c>
       <c r="G5" s="6">
+        <v>7</v>
+      </c>
+      <c r="H5" s="6">
         <v>4</v>
-      </c>
-      <c r="H5" s="6">
-        <v>7</v>
       </c>
       <c r="I5" s="6">
         <v>4</v>
       </c>
       <c r="J5" s="6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K5" s="6">
-        <v>9</v>
-      </c>
-      <c r="L5" s="6">
         <v>7</v>
       </c>
+      <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="14" t="s">
+      <c r="Q5" s="26"/>
+      <c r="R5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="26">
+      <c r="S5" s="26">
         <v>5.7</v>
       </c>
-      <c r="U5" s="31">
-        <v>0</v>
-      </c>
-      <c r="V5" s="7">
-        <v>0</v>
-      </c>
-      <c r="W5" s="15">
-        <v>0</v>
-      </c>
-      <c r="X5" s="1"/>
-    </row>
-    <row r="6" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T5" s="31">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7">
+        <v>0</v>
+      </c>
+      <c r="V5" s="15">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>4</v>
       </c>
@@ -1433,56 +1417,53 @@
         <v>6</v>
       </c>
       <c r="D6" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E6" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F6" s="6">
         <v>6</v>
       </c>
       <c r="G6" s="6">
+        <v>8</v>
+      </c>
+      <c r="H6" s="6">
         <v>6</v>
       </c>
-      <c r="H6" s="6">
-        <v>8</v>
-      </c>
       <c r="I6" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K6" s="6">
-        <v>9</v>
-      </c>
-      <c r="L6" s="6">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="14" t="s">
+      <c r="Q6" s="26"/>
+      <c r="R6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="26">
+      <c r="S6" s="26">
         <v>7.2</v>
       </c>
-      <c r="U6" s="31">
+      <c r="T6" s="31">
         <v>48</v>
       </c>
-      <c r="V6" s="7">
+      <c r="U6" s="7">
         <v>48</v>
       </c>
-      <c r="W6" s="15">
-        <v>0</v>
-      </c>
-      <c r="X6" s="1"/>
-    </row>
-    <row r="7" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V6" s="15">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="1:23" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>5</v>
       </c>
@@ -1493,56 +1474,53 @@
         <v>5</v>
       </c>
       <c r="D7" s="6">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6">
+        <v>4</v>
+      </c>
+      <c r="G7" s="6">
         <v>7</v>
       </c>
-      <c r="E7" s="6">
-        <v>9</v>
-      </c>
-      <c r="F7" s="6">
-        <v>6</v>
-      </c>
-      <c r="G7" s="6">
-        <v>4</v>
-      </c>
       <c r="H7" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I7" s="6">
         <v>5</v>
       </c>
       <c r="J7" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K7" s="6">
         <v>8</v>
       </c>
-      <c r="L7" s="6">
-        <v>8</v>
-      </c>
+      <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="14" t="s">
+      <c r="Q7" s="26"/>
+      <c r="R7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="T7" s="26">
+      <c r="S7" s="26">
         <v>6.4</v>
       </c>
-      <c r="U7" s="31">
-        <v>8</v>
-      </c>
-      <c r="V7" s="7">
-        <v>8</v>
-      </c>
-      <c r="W7" s="15">
-        <v>0</v>
-      </c>
-      <c r="X7" s="1"/>
-    </row>
-    <row r="8" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T7" s="31">
+        <v>8</v>
+      </c>
+      <c r="U7" s="7">
+        <v>8</v>
+      </c>
+      <c r="V7" s="15">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>6</v>
       </c>
@@ -1556,53 +1534,50 @@
         <v>8</v>
       </c>
       <c r="E8" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J8" s="6">
         <v>9</v>
       </c>
       <c r="K8" s="6">
-        <v>9</v>
-      </c>
-      <c r="L8" s="6">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="14" t="s">
+      <c r="Q8" s="26"/>
+      <c r="R8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="26">
+      <c r="S8" s="26">
         <v>8.3000000000000007</v>
       </c>
-      <c r="U8" s="31">
+      <c r="T8" s="31">
         <v>77</v>
       </c>
-      <c r="V8" s="7">
+      <c r="U8" s="7">
         <v>77</v>
       </c>
-      <c r="W8" s="15">
-        <v>0</v>
-      </c>
-      <c r="X8" s="1"/>
-    </row>
-    <row r="9" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V8" s="15">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>7</v>
       </c>
@@ -1612,57 +1587,54 @@
       <c r="C9" s="14">
         <v>4</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6">
         <v>4</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="F9" s="6">
         <v>4</v>
       </c>
       <c r="G9" s="6">
+        <v>5</v>
+      </c>
+      <c r="H9" s="6">
         <v>4</v>
-      </c>
-      <c r="H9" s="6">
-        <v>5</v>
       </c>
       <c r="I9" s="6">
         <v>4</v>
       </c>
       <c r="J9" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K9" s="6">
-        <v>7</v>
-      </c>
-      <c r="L9" s="6">
         <v>5</v>
       </c>
+      <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="14" t="s">
+      <c r="Q9" s="26"/>
+      <c r="R9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="T9" s="26">
+      <c r="S9" s="26">
         <v>4.5599999999999996</v>
       </c>
-      <c r="U9" s="31">
+      <c r="T9" s="31">
         <v>79</v>
       </c>
-      <c r="V9" s="7">
+      <c r="U9" s="7">
         <v>79</v>
       </c>
-      <c r="W9" s="15">
-        <v>0</v>
-      </c>
-      <c r="X9" s="1"/>
-    </row>
-    <row r="10" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V9" s="15">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>8</v>
       </c>
@@ -1673,56 +1645,53 @@
         <v>9</v>
       </c>
       <c r="D10" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="6">
         <v>9</v>
       </c>
       <c r="F10" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G10" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H10" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I10" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K10" s="6">
         <v>9</v>
       </c>
-      <c r="L10" s="6">
-        <v>9</v>
-      </c>
+      <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="14" t="s">
+      <c r="Q10" s="26"/>
+      <c r="R10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="T10" s="26">
+      <c r="S10" s="26">
         <v>8.3000000000000007</v>
       </c>
-      <c r="U10" s="31">
+      <c r="T10" s="31">
         <v>16</v>
       </c>
-      <c r="V10" s="7">
+      <c r="U10" s="7">
         <v>16</v>
       </c>
-      <c r="W10" s="15">
-        <v>0</v>
-      </c>
-      <c r="X10" s="1"/>
-    </row>
-    <row r="11" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V10" s="15">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>9</v>
       </c>
@@ -1733,56 +1702,53 @@
         <v>9</v>
       </c>
       <c r="D11" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H11" s="6">
         <v>9</v>
       </c>
       <c r="I11" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J11" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K11" s="6">
         <v>9</v>
       </c>
-      <c r="L11" s="6">
-        <v>9</v>
-      </c>
+      <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="14" t="s">
+      <c r="Q11" s="26"/>
+      <c r="R11" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="T11" s="26">
+      <c r="S11" s="26">
         <v>8.9</v>
       </c>
-      <c r="U11" s="31">
+      <c r="T11" s="31">
         <v>22</v>
       </c>
-      <c r="V11" s="7">
+      <c r="U11" s="7">
         <v>22</v>
       </c>
-      <c r="W11" s="15">
-        <v>0</v>
-      </c>
-      <c r="X11" s="1"/>
-    </row>
-    <row r="12" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V11" s="15">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>10</v>
       </c>
@@ -1793,16 +1759,16 @@
         <v>9</v>
       </c>
       <c r="D12" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="6">
         <v>9</v>
       </c>
       <c r="F12" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H12" s="6">
         <v>9</v>
@@ -1816,33 +1782,30 @@
       <c r="K12" s="6">
         <v>9</v>
       </c>
-      <c r="L12" s="6">
-        <v>9</v>
-      </c>
+      <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="14" t="s">
+      <c r="Q12" s="26"/>
+      <c r="R12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="T12" s="26">
+      <c r="S12" s="26">
         <v>8.8000000000000007</v>
       </c>
-      <c r="U12" s="31">
+      <c r="T12" s="31">
         <v>77</v>
       </c>
-      <c r="V12" s="7">
+      <c r="U12" s="7">
         <v>77</v>
       </c>
-      <c r="W12" s="15">
-        <v>0</v>
-      </c>
-      <c r="X12" s="1"/>
-    </row>
-    <row r="13" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V12" s="15">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>11</v>
       </c>
@@ -1853,56 +1816,53 @@
         <v>5</v>
       </c>
       <c r="D13" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E13" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F13" s="6">
         <v>4</v>
       </c>
       <c r="G13" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H13" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I13" s="6">
         <v>5</v>
       </c>
       <c r="J13" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K13" s="6">
-        <v>9</v>
-      </c>
-      <c r="L13" s="6">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="14" t="s">
+      <c r="Q13" s="26"/>
+      <c r="R13" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="T13" s="26">
+      <c r="S13" s="26">
         <v>6.3</v>
       </c>
-      <c r="U13" s="31">
+      <c r="T13" s="31">
         <v>15</v>
       </c>
-      <c r="V13" s="7">
+      <c r="U13" s="7">
         <v>15</v>
       </c>
-      <c r="W13" s="15">
-        <v>0</v>
-      </c>
-      <c r="X13" s="1"/>
-    </row>
-    <row r="14" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V13" s="15">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>12</v>
       </c>
@@ -1912,17 +1872,17 @@
       <c r="C14" s="14">
         <v>9</v>
       </c>
-      <c r="D14" s="6">
-        <v>9</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="E14" s="6">
+        <v>9</v>
+      </c>
       <c r="F14" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H14" s="6">
         <v>9</v>
@@ -1936,33 +1896,30 @@
       <c r="K14" s="6">
         <v>9</v>
       </c>
-      <c r="L14" s="6">
-        <v>9</v>
-      </c>
+      <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="14" t="s">
+      <c r="Q14" s="26"/>
+      <c r="R14" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="T14" s="26">
+      <c r="S14" s="26">
         <v>8.89</v>
       </c>
-      <c r="U14" s="31">
+      <c r="T14" s="31">
         <v>39</v>
       </c>
-      <c r="V14" s="7">
+      <c r="U14" s="7">
         <v>39</v>
       </c>
-      <c r="W14" s="15">
-        <v>0</v>
-      </c>
-      <c r="X14" s="1"/>
-    </row>
-    <row r="15" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V14" s="15">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>13</v>
       </c>
@@ -1973,56 +1930,53 @@
         <v>7</v>
       </c>
       <c r="D15" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H15" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I15" s="6">
         <v>8</v>
       </c>
       <c r="J15" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K15" s="6">
         <v>9</v>
       </c>
-      <c r="L15" s="6">
-        <v>9</v>
-      </c>
+      <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="14" t="s">
+      <c r="Q15" s="26"/>
+      <c r="R15" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="T15" s="26">
+      <c r="S15" s="26">
         <v>8.1999999999999993</v>
       </c>
-      <c r="U15" s="31">
+      <c r="T15" s="31">
         <v>68</v>
       </c>
-      <c r="V15" s="7">
+      <c r="U15" s="7">
         <v>68</v>
       </c>
-      <c r="W15" s="15">
-        <v>0</v>
-      </c>
-      <c r="X15" s="1"/>
-    </row>
-    <row r="16" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V15" s="15">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>14</v>
       </c>
@@ -2033,56 +1987,53 @@
         <v>6</v>
       </c>
       <c r="D16" s="6">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4</v>
+      </c>
+      <c r="F16" s="6">
+        <v>5</v>
+      </c>
+      <c r="G16" s="6">
         <v>6</v>
       </c>
-      <c r="E16" s="6">
-        <v>10</v>
-      </c>
-      <c r="F16" s="6">
-        <v>4</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="H16" s="6">
         <v>5</v>
       </c>
-      <c r="H16" s="6">
+      <c r="I16" s="6">
         <v>6</v>
       </c>
-      <c r="I16" s="6">
-        <v>5</v>
-      </c>
       <c r="J16" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K16" s="6">
-        <v>8</v>
-      </c>
-      <c r="L16" s="6">
         <v>7</v>
       </c>
+      <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="14" t="s">
+      <c r="Q16" s="26"/>
+      <c r="R16" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="T16" s="26">
+      <c r="S16" s="26">
         <v>6.3</v>
       </c>
-      <c r="U16" s="31">
-        <v>0</v>
-      </c>
-      <c r="V16" s="7">
-        <v>0</v>
-      </c>
-      <c r="W16" s="15">
-        <v>0</v>
-      </c>
-      <c r="X16" s="1"/>
-    </row>
-    <row r="17" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T16" s="31">
+        <v>0</v>
+      </c>
+      <c r="U16" s="7">
+        <v>0</v>
+      </c>
+      <c r="V16" s="15">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="1:23" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>15</v>
       </c>
@@ -2093,13 +2044,13 @@
         <v>5</v>
       </c>
       <c r="D17" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F17" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G17" s="6">
         <v>5</v>
@@ -2108,41 +2059,38 @@
         <v>5</v>
       </c>
       <c r="I17" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J17" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K17" s="6">
-        <v>9</v>
-      </c>
-      <c r="L17" s="6">
         <v>7</v>
       </c>
+      <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="14" t="s">
+      <c r="Q17" s="26"/>
+      <c r="R17" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="T17" s="26">
+      <c r="S17" s="26">
         <v>6.5</v>
       </c>
-      <c r="U17" s="31">
+      <c r="T17" s="31">
         <v>64</v>
       </c>
-      <c r="V17" s="7">
+      <c r="U17" s="7">
         <v>64</v>
       </c>
-      <c r="W17" s="15">
-        <v>0</v>
-      </c>
-      <c r="X17" s="1"/>
-    </row>
-    <row r="18" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V17" s="15">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="1:23" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>16</v>
       </c>
@@ -2153,56 +2101,53 @@
         <v>4</v>
       </c>
       <c r="D18" s="6">
+        <v>9</v>
+      </c>
+      <c r="E18" s="6">
+        <v>7</v>
+      </c>
+      <c r="F18" s="6">
         <v>6</v>
-      </c>
-      <c r="E18" s="6">
-        <v>9</v>
-      </c>
-      <c r="F18" s="6">
-        <v>7</v>
       </c>
       <c r="G18" s="6">
         <v>6</v>
       </c>
       <c r="H18" s="6">
+        <v>5</v>
+      </c>
+      <c r="I18" s="6">
+        <v>9</v>
+      </c>
+      <c r="J18" s="6">
+        <v>8</v>
+      </c>
+      <c r="K18" s="6">
         <v>6</v>
       </c>
-      <c r="I18" s="6">
-        <v>5</v>
-      </c>
-      <c r="J18" s="6">
-        <v>9</v>
-      </c>
-      <c r="K18" s="6">
-        <v>8</v>
-      </c>
-      <c r="L18" s="6">
-        <v>6</v>
-      </c>
+      <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="14" t="s">
+      <c r="Q18" s="26"/>
+      <c r="R18" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="T18" s="26">
+      <c r="S18" s="26">
         <v>6.6</v>
       </c>
-      <c r="U18" s="31">
+      <c r="T18" s="31">
         <v>39</v>
       </c>
-      <c r="V18" s="7">
+      <c r="U18" s="7">
         <v>39</v>
       </c>
-      <c r="W18" s="15">
-        <v>0</v>
-      </c>
-      <c r="X18" s="1"/>
-    </row>
-    <row r="19" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V18" s="15">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="1:23" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>17</v>
       </c>
@@ -2213,10 +2158,10 @@
         <v>6</v>
       </c>
       <c r="D19" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F19" s="6">
         <v>6</v>
@@ -2228,41 +2173,38 @@
         <v>6</v>
       </c>
       <c r="I19" s="6">
+        <v>8</v>
+      </c>
+      <c r="J19" s="6">
+        <v>9</v>
+      </c>
+      <c r="K19" s="6">
         <v>6</v>
       </c>
-      <c r="J19" s="6">
-        <v>8</v>
-      </c>
-      <c r="K19" s="6">
-        <v>9</v>
-      </c>
-      <c r="L19" s="6">
-        <v>6</v>
-      </c>
+      <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="14" t="s">
+      <c r="Q19" s="26"/>
+      <c r="R19" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="T19" s="26">
+      <c r="S19" s="26">
         <v>7.2</v>
       </c>
-      <c r="U19" s="31">
-        <v>0</v>
-      </c>
-      <c r="V19" s="7">
-        <v>0</v>
-      </c>
-      <c r="W19" s="15">
-        <v>0</v>
-      </c>
-      <c r="X19" s="1"/>
-    </row>
-    <row r="20" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T19" s="31">
+        <v>0</v>
+      </c>
+      <c r="U19" s="7">
+        <v>0</v>
+      </c>
+      <c r="V19" s="15">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="1:23" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>18</v>
       </c>
@@ -2279,13 +2221,13 @@
         <v>9</v>
       </c>
       <c r="F20" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H20" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I20" s="6">
         <v>8</v>
@@ -2296,33 +2238,30 @@
       <c r="K20" s="6">
         <v>8</v>
       </c>
-      <c r="L20" s="6">
-        <v>8</v>
-      </c>
+      <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="14" t="s">
+      <c r="Q20" s="26"/>
+      <c r="R20" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="T20" s="26">
+      <c r="S20" s="26">
         <v>8.1999999999999993</v>
       </c>
-      <c r="U20" s="31">
+      <c r="T20" s="31">
         <v>25</v>
       </c>
-      <c r="V20" s="7">
+      <c r="U20" s="7">
         <v>25</v>
       </c>
-      <c r="W20" s="15">
-        <v>0</v>
-      </c>
-      <c r="X20" s="1"/>
-    </row>
-    <row r="21" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V20" s="15">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="1:23" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>19</v>
       </c>
@@ -2332,57 +2271,54 @@
       <c r="C21" s="14">
         <v>8</v>
       </c>
-      <c r="D21" s="6">
-        <v>8</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="E21" s="6">
+        <v>8</v>
+      </c>
       <c r="F21" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H21" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I21" s="6">
         <v>8</v>
       </c>
       <c r="J21" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K21" s="6">
         <v>9</v>
       </c>
-      <c r="L21" s="6">
-        <v>9</v>
-      </c>
+      <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="14" t="s">
+      <c r="Q21" s="26"/>
+      <c r="R21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="T21" s="26">
+      <c r="S21" s="26">
         <v>8.2200000000000006</v>
       </c>
-      <c r="U21" s="31">
+      <c r="T21" s="31">
         <v>23</v>
       </c>
-      <c r="V21" s="7">
+      <c r="U21" s="7">
         <v>23</v>
       </c>
-      <c r="W21" s="15">
-        <v>0</v>
-      </c>
-      <c r="X21" s="1"/>
-    </row>
-    <row r="22" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V21" s="15">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="1:23" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>20</v>
       </c>
@@ -2392,14 +2328,14 @@
       <c r="C22" s="14">
         <v>9</v>
       </c>
-      <c r="D22" s="6">
-        <v>9</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="E22" s="6">
+        <v>8</v>
+      </c>
       <c r="F22" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22" s="6">
         <v>7</v>
@@ -2408,41 +2344,38 @@
         <v>7</v>
       </c>
       <c r="I22" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J22" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K22" s="6">
         <v>9</v>
       </c>
-      <c r="L22" s="6">
-        <v>9</v>
-      </c>
+      <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="14" t="s">
+      <c r="Q22" s="26"/>
+      <c r="R22" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="T22" s="26">
+      <c r="S22" s="26">
         <v>8.11</v>
       </c>
-      <c r="U22" s="31">
+      <c r="T22" s="31">
         <v>107</v>
       </c>
-      <c r="V22" s="7">
+      <c r="U22" s="7">
         <v>107</v>
       </c>
-      <c r="W22" s="15">
-        <v>0</v>
-      </c>
-      <c r="X22" s="1"/>
-    </row>
-    <row r="23" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V22" s="15">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="1:23" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>21</v>
       </c>
@@ -2456,53 +2389,50 @@
         <v>9</v>
       </c>
       <c r="E23" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F23" s="6">
         <v>7</v>
       </c>
       <c r="G23" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H23" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I23" s="6">
         <v>8</v>
       </c>
       <c r="J23" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K23" s="6">
         <v>9</v>
       </c>
-      <c r="L23" s="6">
-        <v>9</v>
-      </c>
-      <c r="M23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="14" t="s">
+      <c r="Q23" s="38"/>
+      <c r="R23" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="T23" s="26">
+      <c r="S23" s="26">
         <v>8.4</v>
       </c>
-      <c r="U23" s="31">
+      <c r="T23" s="31">
         <v>42</v>
       </c>
-      <c r="V23" s="7">
+      <c r="U23" s="7">
         <v>42</v>
       </c>
-      <c r="W23" s="15">
-        <v>0</v>
-      </c>
-      <c r="X23" s="1"/>
-    </row>
-    <row r="24" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V23" s="15">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="1:23" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>22</v>
       </c>
@@ -2513,56 +2443,53 @@
         <v>5</v>
       </c>
       <c r="D24" s="6">
+        <v>9</v>
+      </c>
+      <c r="E24" s="6">
         <v>7</v>
       </c>
-      <c r="E24" s="6">
-        <v>9</v>
-      </c>
       <c r="F24" s="6">
+        <v>4</v>
+      </c>
+      <c r="G24" s="6">
         <v>7</v>
       </c>
-      <c r="G24" s="6">
-        <v>4</v>
-      </c>
       <c r="H24" s="6">
+        <v>5</v>
+      </c>
+      <c r="I24" s="6">
         <v>7</v>
       </c>
-      <c r="I24" s="6">
-        <v>5</v>
-      </c>
       <c r="J24" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K24" s="6">
-        <v>9</v>
-      </c>
-      <c r="L24" s="6">
-        <v>8</v>
-      </c>
-      <c r="M24" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="14" t="s">
+      <c r="Q24" s="38"/>
+      <c r="R24" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="T24" s="26">
+      <c r="S24" s="26">
         <v>6.8</v>
       </c>
-      <c r="U24" s="31">
+      <c r="T24" s="31">
         <v>21</v>
       </c>
-      <c r="V24" s="7">
+      <c r="U24" s="7">
         <v>21</v>
       </c>
-      <c r="W24" s="15">
-        <v>0</v>
-      </c>
-      <c r="X24" s="1"/>
-    </row>
-    <row r="25" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V24" s="15">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="1:23" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>23</v>
       </c>
@@ -2573,56 +2500,53 @@
         <v>6</v>
       </c>
       <c r="D25" s="6">
+        <v>10</v>
+      </c>
+      <c r="E25" s="6">
         <v>5</v>
-      </c>
-      <c r="E25" s="6">
-        <v>10</v>
       </c>
       <c r="F25" s="6">
         <v>5</v>
       </c>
       <c r="G25" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H25" s="6">
+        <v>4</v>
+      </c>
+      <c r="I25" s="6">
         <v>6</v>
       </c>
-      <c r="I25" s="6">
-        <v>4</v>
-      </c>
       <c r="J25" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K25" s="6">
         <v>8</v>
       </c>
-      <c r="L25" s="6">
-        <v>8</v>
-      </c>
-      <c r="M25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="14" t="s">
+      <c r="Q25" s="38"/>
+      <c r="R25" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="T25" s="26">
+      <c r="S25" s="26">
         <v>6.3</v>
       </c>
-      <c r="U25" s="31">
+      <c r="T25" s="31">
         <v>2</v>
       </c>
-      <c r="V25" s="7">
+      <c r="U25" s="7">
         <v>2</v>
       </c>
-      <c r="W25" s="15">
-        <v>0</v>
-      </c>
-      <c r="X25" s="1"/>
-    </row>
-    <row r="26" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V25" s="15">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="1:23" s="8" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>24</v>
       </c>
@@ -2632,57 +2556,54 @@
       <c r="C26" s="16">
         <v>5</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="17">
+        <v>6</v>
+      </c>
+      <c r="F26" s="17">
         <v>5</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="17">
+      <c r="G26" s="17">
         <v>6</v>
       </c>
-      <c r="G26" s="17">
+      <c r="H26" s="17">
         <v>5</v>
-      </c>
-      <c r="H26" s="17">
-        <v>6</v>
       </c>
       <c r="I26" s="17">
         <v>5</v>
       </c>
       <c r="J26" s="17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K26" s="17">
-        <v>8</v>
-      </c>
-      <c r="L26" s="17">
         <v>7</v>
       </c>
-      <c r="M26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="18"/>
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="16" t="s">
+      <c r="Q26" s="39"/>
+      <c r="R26" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="T26" s="27">
+      <c r="S26" s="27">
         <v>5.78</v>
       </c>
-      <c r="U26" s="32">
+      <c r="T26" s="32">
         <v>55</v>
       </c>
-      <c r="V26" s="19">
+      <c r="U26" s="19">
         <v>55</v>
       </c>
-      <c r="W26" s="20">
-        <v>0</v>
-      </c>
-      <c r="X26" s="1"/>
-    </row>
-    <row r="27" spans="1:24" s="8" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V26" s="20">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" spans="1:23" s="8" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="D27" s="10"/>
@@ -2699,25 +2620,24 @@
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="11" t="s">
+      <c r="R27" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="S27" s="12">
+        <v>7.17</v>
+      </c>
       <c r="T27" s="12">
-        <v>7.17</v>
+        <v>827</v>
       </c>
       <c r="U27" s="12">
         <v>827</v>
       </c>
-      <c r="V27" s="12">
-        <v>827</v>
-      </c>
-      <c r="W27" s="13">
-        <v>0</v>
-      </c>
-      <c r="X27" s="1"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V27" s="13">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2736,14 +2656,13 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2762,28 +2681,26 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-    </row>
-    <row r="30" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="E1:R1"/>
-    <mergeCell ref="C1:D1"/>
+  <mergeCells count="6">
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="D1:Q1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2795,268 +2712,268 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60" style="58" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="60" customWidth="1"/>
-    <col min="3" max="3" width="13" style="57" customWidth="1"/>
-    <col min="4" max="4" width="55.28515625" style="57" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="57"/>
+    <col min="1" max="1" width="60" style="44" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="13" style="43" customWidth="1"/>
+    <col min="4" max="4" width="55.28515625" style="43" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="47"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="49"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="63" t="s">
+      <c r="C3" s="49"/>
+    </row>
+    <row r="4" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="49"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+    </row>
+    <row r="9" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="67"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="68" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="49"/>
+      <c r="D10" s="68"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="49"/>
+      <c r="D11" s="68"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="49"/>
+      <c r="D12" s="68"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="49"/>
+      <c r="D13" s="68"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="49"/>
+      <c r="D14" s="68"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="49"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="49"/>
+    </row>
+    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="67"/>
+      <c r="C17" s="49"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="49"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="49"/>
+    </row>
+    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="49"/>
+    </row>
+    <row r="21" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="67"/>
+      <c r="C21" s="49"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="64"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="64"/>
-    </row>
-    <row r="4" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="64"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="64"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="64"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="64"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="64"/>
-    </row>
-    <row r="9" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="56"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="56"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="56"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="56"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="56"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="64"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="64"/>
-    </row>
-    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="64"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="64"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="64"/>
-    </row>
-    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="64"/>
-    </row>
-    <row r="21" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="64"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="65" t="s">
+      <c r="C22" s="49"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B23" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="64"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="65" t="s">
+      <c r="C23" s="49"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="64"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="65" t="s">
+      <c r="B24" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="49"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="64"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="65" t="s">
+      <c r="B25" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="49"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="64"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="65" t="s">
+      <c r="B26" s="51">
+        <v>1</v>
+      </c>
+      <c r="C26" s="49"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="52"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="66">
-        <v>1</v>
-      </c>
-      <c r="C26" s="64"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="67"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="64"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="64"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="67"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="64"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="67"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="64"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="49"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="67"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="64"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/AppData/Reports/GroupProgressSheet/Template.xlsx
+++ b/AppData/Reports/GroupProgressSheet/Template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Средний балл</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>Итоговые оценки и зачеты за {SemesterNumber} семестр</t>
+  </si>
+  <si>
+    <t>iuyiouio</t>
   </si>
 </sst>
 </file>
@@ -320,7 +323,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -481,11 +484,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -603,12 +680,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -632,6 +703,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,31 +1026,31 @@
     <col min="24" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43"/>
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41"/>
+      <c r="B1" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="47" t="s">
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="45" t="s">
         <v>8</v>
       </c>
       <c r="S1" s="36" t="s">
@@ -968,9 +1063,9 @@
       <c r="V1" s="40"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:23" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="46"/>
+    <row r="2" spans="1:27" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="19"/>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
@@ -986,7 +1081,7 @@
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
       <c r="Q2" s="20"/>
-      <c r="R2" s="48"/>
+      <c r="R2" s="46"/>
       <c r="S2" s="37"/>
       <c r="T2" s="11" t="s">
         <v>1</v>
@@ -999,18 +1094,18 @@
       </c>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>1</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="21"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
@@ -1030,7 +1125,7 @@
       <c r="V3" s="18"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" s="6" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="D4" s="7"/>
@@ -1050,15 +1145,18 @@
       <c r="R4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="9"/>
+      <c r="T4" s="49"/>
       <c r="U4" s="9"/>
       <c r="V4" s="10"/>
       <c r="W4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AA4" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1083,7 +1181,7 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1108,12 +1206,46 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S8" s="3"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="R13" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:V1"/>
-    <mergeCell ref="D1:Q1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="R1:R2"/>
@@ -1141,10 +1273,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="47"/>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1166,10 +1298,10 @@
       <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="31"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1201,12 +1333,12 @@
       <c r="C8" s="31"/>
     </row>
     <row r="9" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="31"/>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="48" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1218,7 +1350,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="31"/>
-      <c r="D10" s="50"/>
+      <c r="D10" s="48"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
@@ -1228,7 +1360,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="31"/>
-      <c r="D11" s="50"/>
+      <c r="D11" s="48"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
@@ -1238,7 +1370,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="31"/>
-      <c r="D12" s="50"/>
+      <c r="D12" s="48"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
@@ -1248,7 +1380,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="31"/>
-      <c r="D13" s="50"/>
+      <c r="D13" s="48"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
@@ -1258,7 +1390,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="31"/>
-      <c r="D14" s="50"/>
+      <c r="D14" s="48"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
@@ -1279,10 +1411,10 @@
       <c r="C16" s="31"/>
     </row>
     <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="31"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1313,10 +1445,10 @@
       <c r="C20" s="31"/>
     </row>
     <row r="21" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="49"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="31"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">

--- a/AppData/Reports/GroupProgressSheet/Template.xlsx
+++ b/AppData/Reports/GroupProgressSheet/Template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>Средний балл</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>Итого</t>
-  </si>
-  <si>
-    <t>Экзамен</t>
   </si>
   <si>
     <t>Кол-во пропущен
@@ -219,18 +216,12 @@
   <si>
     <t>{TotalAvg}</t>
   </si>
-  <si>
-    <t>Итоговые оценки и зачеты за {SemesterNumber} семестр</t>
-  </si>
-  <si>
-    <t>iuyiouio</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,14 +274,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
@@ -323,7 +306,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -338,8 +321,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -351,8 +336,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -364,8 +351,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -377,10 +366,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -392,10 +381,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -407,114 +396,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -546,13 +431,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -562,170 +462,137 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1008,239 +875,258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA13"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" style="4" customWidth="1"/>
-    <col min="3" max="17" width="4.85546875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="5" style="5" customWidth="1"/>
-    <col min="20" max="22" width="4.85546875" style="4" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" style="4" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="3.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="11" customWidth="1"/>
+    <col min="3" max="17" width="4.85546875" style="11" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" style="11" customWidth="1"/>
+    <col min="19" max="19" width="5" style="32" customWidth="1"/>
+    <col min="20" max="22" width="4.85546875" style="11" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" style="11" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41"/>
-      <c r="B1" s="43" t="s">
+    <row r="1" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="S1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="45" t="s">
+      <c r="U1" s="8"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="10"/>
+    </row>
+    <row r="2" spans="1:23" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="39"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="2"/>
-    </row>
-    <row r="2" spans="1:27" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" s="12" t="s">
+      <c r="V2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="W2" s="2"/>
-    </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="10"/>
+    </row>
+    <row r="3" spans="1:23" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>1</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="14" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="15"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="8" t="s">
+      <c r="S3" s="22"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="25"/>
+    </row>
+    <row r="4" spans="1:23" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="T4" s="49"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="1"/>
-      <c r="AA4" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-    </row>
-    <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="S8" s="3"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="R13" s="2"/>
+      <c r="S4" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="25"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+    </row>
+    <row r="7" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="S8" s="31"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1260,268 +1146,268 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60" style="26" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="13" style="25" customWidth="1"/>
-    <col min="4" max="4" width="55.28515625" style="25" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="1" width="60" style="43" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="13" style="35" customWidth="1"/>
+    <col min="4" max="4" width="55.28515625" style="35" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="34"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="38"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="29"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="30" t="s">
+      <c r="C3" s="38"/>
+    </row>
+    <row r="4" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="38"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+    </row>
+    <row r="9" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="40"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="40"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="40"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="40"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="40"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="38"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="38"/>
+    </row>
+    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="38"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="38"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="38"/>
+    </row>
+    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="38"/>
+    </row>
+    <row r="21" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="38"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="31"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="31"/>
-    </row>
-    <row r="4" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="31"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-    </row>
-    <row r="9" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="48"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="48"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="48"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="48"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="48"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="31"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="31"/>
-    </row>
-    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="31"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="31"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="31"/>
-    </row>
-    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="31"/>
-    </row>
-    <row r="21" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="31"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="32" t="s">
+      <c r="C22" s="38"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B23" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="31"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="32" t="s">
+      <c r="C23" s="38"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="31"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
+      <c r="B24" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="38"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="31"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="32" t="s">
+      <c r="B25" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="38"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="31"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="32" t="s">
+      <c r="B26" s="37">
+        <v>1</v>
+      </c>
+      <c r="C26" s="38"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="41"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="33">
-        <v>1</v>
-      </c>
-      <c r="C26" s="31"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="34"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="38"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="34"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="38"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="34"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="38"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="34"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/AppData/Reports/GroupProgressSheet/Template.xlsx
+++ b/AppData/Reports/GroupProgressSheet/Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Таблица" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>Средний балл</t>
   </si>
@@ -134,47 +134,22 @@
     <t>Успеваемость в группе</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Куратор группы</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">                     </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Аргер Н.В. </t>
-    </r>
-  </si>
-  <si>
-    <t>!-</t>
-  </si>
-  <si>
-    <t>!3</t>
-  </si>
-  <si>
-    <t>!12</t>
+    <t>{TotalAvg}</t>
+  </si>
+  <si>
+    <t>{StudentsCount}</t>
+  </si>
+  <si>
+    <t>{EightNineCount}</t>
+  </si>
+  <si>
+    <t>{SixSevenCount}</t>
+  </si>
+  <si>
+    <t>{BadOneTwoSubjectsCount}</t>
+  </si>
+  <si>
+    <t>{BadThreeAndMoreSubjectsCount}</t>
   </si>
   <si>
     <r>
@@ -209,12 +184,43 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>успеваемости учащихся 2 курса, группы Т291-19
-за 3 семестр 2020/2021 учебного года</t>
+      <t>успеваемости учащихся {CourseNumber} курса, группы {GroupName}
+за {SemesterNumber} семестр {CourseYears} учебного года</t>
     </r>
   </si>
   <si>
-    <t>{TotalAvg}</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Куратор группы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">                     </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> {CuratorName} </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -462,47 +468,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -515,12 +494,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -559,9 +532,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -577,23 +547,62 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -877,256 +886,256 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" style="11" customWidth="1"/>
-    <col min="3" max="17" width="4.85546875" style="11" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" style="11" customWidth="1"/>
-    <col min="19" max="19" width="5" style="32" customWidth="1"/>
-    <col min="20" max="22" width="4.85546875" style="11" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" style="11" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="3.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="4" customWidth="1"/>
+    <col min="3" max="17" width="4.85546875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="5" style="21" customWidth="1"/>
+    <col min="20" max="22" width="4.85546875" style="4" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" style="4" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="5" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="8"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="10"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="19" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="U2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="V2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="10"/>
-    </row>
-    <row r="3" spans="1:23" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="W2" s="3"/>
+    </row>
+    <row r="3" spans="1:23" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="22"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="25"/>
-    </row>
-    <row r="4" spans="1:23" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="28" t="s">
+      <c r="S3" s="11"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="14"/>
+    </row>
+    <row r="4" spans="1:23" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="25"/>
+      <c r="S4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="14"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
     </row>
     <row r="7" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="S8" s="31"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="S8" s="20"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="R13" s="10"/>
+      <c r="R13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1145,269 +1154,269 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60" style="43" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="13" style="35" customWidth="1"/>
-    <col min="4" max="4" width="55.28515625" style="35" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="1" width="60" style="30" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="13" style="23" customWidth="1"/>
+    <col min="4" max="4" width="55.28515625" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="38"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="40" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="45"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="45"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="45"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="45"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="45"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="26"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="26"/>
+    </row>
+    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="26"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="26"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="26"/>
+    </row>
+    <row r="21" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="26"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="26"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="46" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="37" t="s">
+      <c r="C24" s="26"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="26"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="40"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="40"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="40"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="40"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="40"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="38"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="38"/>
-    </row>
-    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="38"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="38"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="38"/>
-    </row>
-    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="38"/>
-    </row>
-    <row r="21" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="38"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="38"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="38"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="38"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="38"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="37">
-        <v>1</v>
-      </c>
-      <c r="C26" s="38"/>
+      <c r="C26" s="26"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="38"/>
+      <c r="A28" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="38"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="38"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">
